--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
   <si>
     <t>David</t>
   </si>
@@ -89,9 +89,6 @@
     <t>work out Jail level asset list and fill the new trello board</t>
   </si>
   <si>
-    <t>Nov 13 - 20</t>
-  </si>
-  <si>
     <t>Presentatie Werk</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>Implement all scripts together and test tutorial level</t>
+  </si>
+  <si>
+    <t>Nov 14 - 20</t>
+  </si>
+  <si>
+    <t>Work out the charged sword slash mechanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
   </si>
 </sst>
 </file>
@@ -210,24 +216,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -554,334 +564,342 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="8" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="8" width="20.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:29" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -889,234 +907,234 @@
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
   <si>
     <t>David</t>
   </si>
@@ -92,18 +92,12 @@
     <t>Presentatie Werk</t>
   </si>
   <si>
-    <t>Props for Collectors Building</t>
-  </si>
-  <si>
     <t>City Background and finish of design of the city</t>
   </si>
   <si>
     <t>Interior Collectors Building</t>
   </si>
   <si>
-    <t xml:space="preserve">Enemy_Camera Script </t>
-  </si>
-  <si>
     <t>Implement all scripts together and test tutorial level</t>
   </si>
   <si>
@@ -114,6 +108,18 @@
   </si>
   <si>
     <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy bug fixing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Warden </t>
+  </si>
+  <si>
+    <t>The Warden</t>
+  </si>
+  <si>
+    <t>Props for Collectors Building and city</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -238,6 +244,18 @@
     </xf>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -564,7 +582,7 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -602,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -613,19 +631,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -676,8 +694,11 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -705,43 +726,58 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I12" s="2"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>David</t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">Comments </t>
   </si>
   <si>
-    <t xml:space="preserve">Enemy bug fixing </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Warden </t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>Props for Collectors Building and city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy Script </t>
+  </si>
+  <si>
+    <t>User Interface work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Interface work </t>
+  </si>
+  <si>
+    <t>This Friday we will practice the presentation.</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +643,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
@@ -643,15 +652,18 @@
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -695,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -708,6 +720,12 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -756,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>David</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>This Friday we will practice the presentation.</t>
+  </si>
+  <si>
+    <t>User Interface work and drawing for the presentation.</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +658,7 @@
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -706,7 +709,7 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -721,10 +724,10 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -782,8 +785,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Ninja Outbreak\Project-Ninja-Outbreak\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Important and Stuff V1\School\Year 2\Project-Ninja-Outbreak\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
   <si>
     <t>David</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>User Interface work and drawing for the presentation.</t>
+  </si>
+  <si>
+    <t>For Monday : Make a working build that we can present.</t>
   </si>
 </sst>
 </file>
@@ -594,19 +597,19 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="8" width="20.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="8" width="20.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -635,7 +638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -661,7 +664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -669,7 +672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -679,7 +682,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -705,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -731,12 +734,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -746,7 +752,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -772,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -792,7 +798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -804,7 +810,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -827,7 +833,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -853,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -861,12 +867,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -876,7 +882,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -902,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -910,12 +916,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -925,7 +931,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -951,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -959,12 +965,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -990,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -998,12 +1004,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1013,7 +1019,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1047,12 +1053,12 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1062,7 +1068,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1096,12 +1102,12 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1111,7 +1117,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1145,12 +1151,12 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1160,7 +1166,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1200,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Important and Stuff V1\School\Year 2\Project-Ninja-Outbreak\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Ninja Outbreak\Project-Ninja-Outbreak\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>David</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>For Monday : Make a working build that we can present.</t>
+  </si>
+  <si>
+    <t>Gun Guard Weapon</t>
+  </si>
+  <si>
+    <t>Jail level Props</t>
+  </si>
+  <si>
+    <t>Gun Guard Model Textures</t>
+  </si>
+  <si>
+    <t>This Monday last chance to practice for the presentation. Tuesday is presentation day.</t>
   </si>
 </sst>
 </file>
@@ -597,19 +609,19 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="8" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="2" max="8" width="20.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -638,7 +650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -664,7 +676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -672,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -682,7 +694,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -708,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -733,8 +745,11 @@
       <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -742,7 +757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -752,7 +767,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -778,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -788,9 +803,15 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
@@ -798,7 +819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -810,7 +831,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -833,7 +854,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -859,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -867,12 +888,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -882,7 +903,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -908,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -916,12 +937,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -931,7 +952,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -957,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -965,12 +986,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -1004,12 +1025,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1019,7 +1040,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1053,12 +1074,12 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1068,7 +1089,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1102,12 +1123,12 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1117,7 +1138,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -1143,7 +1164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1151,12 +1172,12 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1166,7 +1187,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1221,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
